--- a/需求文档/参考资料/面料属性.xlsx
+++ b/需求文档/参考资料/面料属性.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="160" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8475" yWindow="165" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="面料用途" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="152">
   <si>
     <t>面料用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -702,12 +699,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -716,7 +789,7 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1036,137 +1109,137 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1186,163 +1259,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1360,392 +1433,430 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
       <c r="B54" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
       <c r="B56" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
       <c r="B57" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
         <v>122</v>
       </c>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1769,160 +1880,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
